--- a/KSKreditiSB.xlsx
+++ b/KSKreditiSB.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t>Примања во (плата, пензија, итн.)</t>
   </si>
@@ -107,55 +107,46 @@
     <t>https://www.stb.com.mk/naselenie/krediti/potroshuvacki-kredit/potroshuvacki-obezbeden-kredit/#Cenovni_uslovi</t>
   </si>
   <si>
-    <t>Потрошувачки-ненаменски обезбеден со депозит</t>
-  </si>
-  <si>
-    <t>Потрошувачки-ненаменски обезбеден со хипотека</t>
-  </si>
-  <si>
-    <t>Со животно осигурување.</t>
-  </si>
-  <si>
     <t>Со животно осигурување. Потоа променлива 5.65%. За клиенти корисници на станбен кредит во Банката.</t>
   </si>
   <si>
     <t>https://www.stb.com.mk/naselenie/krediti/potroshuvacki-kredit/obezbeden-potroshuvacki-kredit-za-klienti-so-stanben-kredit-vo-sb/#Cenovni_uslovi</t>
   </si>
   <si>
-    <t>Потрошувачки-наменски обезбеден со хипотека</t>
-  </si>
-  <si>
     <t>Станбен кредит</t>
   </si>
   <si>
     <t>https://www.stb.com.mk/naselenie/krediti/stanbeni-krediti/glavni-karakteristiki/#Cenovni_uslovi</t>
   </si>
   <si>
-    <t>Станбен кредит со Лист за предбележување на градба</t>
-  </si>
-  <si>
     <t>https://www.stb.com.mk/naselenie/krediti/stanbeni-krediti/karakteristiki-za-stanovi-vo-izgradba/#Cenovni_uslovi</t>
   </si>
   <si>
     <t>Со животно осигурување. Потоа променлива 5.65%.</t>
   </si>
   <si>
-    <t>Потоа променлива 5.65%.</t>
-  </si>
-  <si>
     <t>Променлива</t>
   </si>
   <si>
-    <t>Потрошувачки за купување на градежно земјиште</t>
-  </si>
-  <si>
-    <t>Потрошувачки за купување на деловен простор</t>
-  </si>
-  <si>
     <t>Со осигурување од незгода. Потоа променлива стапка 8.55%</t>
   </si>
   <si>
     <t>Со осигурување од незгода. Потоа променлива стапка 7.65%</t>
+  </si>
+  <si>
+    <t>Со животно осигурување. Обезбеден со залог на наменска сметка</t>
+  </si>
+  <si>
+    <t>Потрошувачки-наменски</t>
+  </si>
+  <si>
+    <t>Потоа променлива 5.65%. Со Лист за предбележување на градба</t>
+  </si>
+  <si>
+    <t>Со животно осигурување. Потоа променлива 5.65%. За купување на градежно земјиште</t>
+  </si>
+  <si>
+    <t>Со животно осигурување. Потоа променлива 5.65%. За купување на деловен простор</t>
   </si>
 </sst>
 </file>
@@ -360,10 +351,10 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,7 +640,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -739,16 +730,16 @@
       <c r="I2" s="10">
         <v>84</v>
       </c>
-      <c r="J2" s="15">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="K2" s="15">
-        <v>8.5300000000000001E-2</v>
+      <c r="J2" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K2" s="17">
+        <v>8.5299999999999994</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -780,16 +771,16 @@
       <c r="I3" s="10">
         <v>120</v>
       </c>
-      <c r="J3" s="15">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="K3" s="18">
-        <v>7.0900000000000005E-2</v>
+      <c r="J3" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K3" s="17">
+        <v>7.09</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -821,16 +812,16 @@
       <c r="I4" s="10">
         <v>120</v>
       </c>
-      <c r="J4" s="15">
-        <v>4.7E-2</v>
-      </c>
-      <c r="K4" s="18">
-        <v>7.1499999999999994E-2</v>
+      <c r="J4" s="17">
+        <v>4.7</v>
+      </c>
+      <c r="K4" s="17">
+        <v>7.15</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -845,7 +836,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -862,16 +853,16 @@
       <c r="I5" s="10">
         <v>240</v>
       </c>
-      <c r="J5" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="K5" s="18">
-        <v>9.7600000000000006E-2</v>
+      <c r="J5" s="17">
+        <v>4</v>
+      </c>
+      <c r="K5" s="17">
+        <v>9.76</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -883,10 +874,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -904,15 +895,15 @@
         <v>240</v>
       </c>
       <c r="J6" s="18">
-        <v>1.9E-2</v>
+        <v>1.9</v>
       </c>
       <c r="K6" s="18">
-        <v>3.2199999999999999E-2</v>
+        <v>3.22</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -924,10 +915,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
@@ -945,15 +936,15 @@
         <v>240</v>
       </c>
       <c r="J7" s="18">
-        <v>1.9E-2</v>
+        <v>1.9</v>
       </c>
       <c r="K7" s="18">
-        <v>3.2199999999999999E-2</v>
+        <v>3.22</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -968,7 +959,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
@@ -985,17 +976,17 @@
       <c r="I8" s="10">
         <v>240</v>
       </c>
-      <c r="J8" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K8" s="18">
-        <v>8.7300000000000003E-2</v>
+      <c r="J8" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="K8" s="17">
+        <v>8.73</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1009,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
@@ -1026,17 +1017,17 @@
       <c r="I9" s="10">
         <v>360</v>
       </c>
-      <c r="J9" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K9" s="18">
-        <v>5.8799999999999998E-2</v>
+      <c r="J9" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="K9" s="17">
+        <v>5.88</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1050,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>12</v>
@@ -1067,17 +1058,17 @@
       <c r="I10" s="10">
         <v>360</v>
       </c>
-      <c r="J10" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="K10" s="18">
-        <v>5.8000000000000003E-2</v>
+      <c r="J10" s="17">
+        <v>3</v>
+      </c>
+      <c r="K10" s="17">
+        <v>5.8</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="16" t="s">
-        <v>34</v>
+      <c r="M10" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1091,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>12</v>
@@ -1108,17 +1099,17 @@
       <c r="I11" s="10">
         <v>240</v>
       </c>
-      <c r="J11" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K11" s="18">
-        <v>6.3799999999999996E-2</v>
+      <c r="J11" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="K11" s="17">
+        <v>6.38</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1132,7 +1123,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
@@ -1144,22 +1135,22 @@
         <v>14</v>
       </c>
       <c r="H12" s="13">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="I12" s="10">
         <v>240</v>
       </c>
-      <c r="J12" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K12" s="18">
-        <v>7.85E-2</v>
+      <c r="J12" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="K12" s="17">
+        <v>7.85</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
